--- a/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
+++ b/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Liangsheng298 (王昰妍)</t>
+          <t>IrisT (谭怡萱)</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -566,35 +566,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>584  9:44:05</t>
+          <t>557  9:17:21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:22:03</t>
+          <t>0:49:16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:38:45</t>
+          <t>1:13:39</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1:04:22  (-1)</t>
+          <t>1:31:20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2:21:17  (-3)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>3:57:38</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>1:57:49</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3:45:17</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -606,7 +606,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IrisT (谭怡萱)</t>
+          <t>Liangsheng298 (王昰妍)</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -614,35 +614,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>622  10:22:38</t>
+          <t>584  9:44:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:49:16</t>
+          <t>0:22:03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2:18:56</t>
+          <t>0:38:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1:31:20</t>
+          <t>1:04:22  (-1)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1:57:49</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>3:45:17</t>
-        </is>
-      </c>
+          <t>2:21:17  (-3)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3:57:38</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">

--- a/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
+++ b/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nzot (赵瑞霖)</t>
+          <t>nzot (张智成 李乐杨 赵瑞霖)</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>neetman (秦维斌)</t>
+          <t>neetman (秦维斌,李泽林,安澍)</t>
         </is>
       </c>
       <c r="D20" t="n">

--- a/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
+++ b/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Liangsheng298 (王昰妍)</t>
+          <t>Liangsheng298 (王昰妍，梁浩然，李鹏烁)</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>yidau (赵佳一)</t>
+          <t>yidau (赵佳一 李天阳 黄嘉宇)</t>
         </is>
       </c>
       <c r="D31" t="n">

--- a/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
+++ b/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,39 +515,1175 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>29 / 90</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>16 / 44</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>12 / 24</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>13 / 33</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>4 / 8</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>1 / 1</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
           <t>0 / 0</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>0 / 0</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>0 / 0</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>0 / 0</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>0 / 0</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>0 / 0</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>0 / 0</t>
-        </is>
-      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IrisT (谭怡萱)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>557  9:17:21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0:49:16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1:13:39</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1:31:20</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1:57:49</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3:45:17</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Liangsheng298 (王昰妍，梁浩然，李鹏烁)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>584  9:44:05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0:22:03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0:38:45</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1:04:22  (-1)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2:21:17  (-3)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3:57:38</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nzot (张智成 李乐杨 赵瑞霖)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>312  5:12:17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0:30:08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1:08:15  (-1)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1:28:18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1:45:36</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>yinyuqin (尹昱钦)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>325  5:25:37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0:16:59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0:30:39  (-1)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(-1)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1:10:44</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2:27:15  (-2)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Midoriya_Izuku (谢牧航)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>444  7:24:36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0:12:52  (-1)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0:53:19  (-1)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1:48:59</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3:49:26</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fork (袁桦斌)</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>531  8:51:38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0:29:02  (-4)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(-1)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1:06:08  (-1)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1:39:05  (-1)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2:57:23  (-2)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>superzzc (张智成)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>591  9:51:08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1:48:45  (-2)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2:19:41  (-1)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2:20:36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2:22:06</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Jiayu_ (黄嘉宇)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>591  9:51:52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0:45:02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1:15:21</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3:53:39  (-2)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2:37:50  (-2)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>abcde777 (李天阳)</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>719  11:59:01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1:15:35  (-7)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0:28:51  (-1)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1:55:54  (-7)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2:58:41  (-1)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gml_247 (顾明礼)</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>780  13:00:50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2:25:44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2:39:19  (-1)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3:09:10</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3:46:37  (-2)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vegetable_cos (蔡禹煊)</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>843  14:03:07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1:22:23  (-1)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2:38:18  (-6)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3:10:47</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3:51:39  (-2)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>yangyl (杨毅霖)</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>165  2:45:20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0:27:13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0:45:25</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1:32:42</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>daisyandgalsang (田苗)</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>521  8:41:43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1:25:08  (-3)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2:18:51</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3:57:44</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CYKKKK (陈育堃)</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>595  9:55:09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1:48:45  (-1)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2:55:28  (-4)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3:30:56</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OmmmmmO (钱文韬)</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>641  10:41:47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2:04:41  (-2)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2:24:35</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3:32:31  (-6)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Asrit (安澍)</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>223  3:43:22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1:45:24  (-2)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1:17:58</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(-3)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>neetman (秦维斌,李泽林,安澍)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>301  5:01:24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2:16:22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2:45:02</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>xwang603 (王鑫)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>383  6:23:17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1:58:17  (-3)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3:25:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nimakanshoujixin (刘益铭)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77  1:17:38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0:17:38  (-3)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>betterer (陈杰祥)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95  1:35:41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1:35:41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ak_Automaton (管庆涵)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99  1:39:27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1:39:27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Edge_lr (梁浩然)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>100  1:40:52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1:40:52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>(-5)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lu_Anlai (卢安来)</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>140  2:20:52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0:20:52  (-6)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>wangjiheng (王冀恒)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>173  2:53:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1:53:00  (-3)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>(-5)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TJ111 (李博识)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>199  3:19:04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2:59:04  (-1)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>playeriv65 (李泽林)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>223  3:43:59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3:23:59  (-1)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>345678910jqka (谢志宏)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>269  4:29:37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3:49:37  (-2)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>yidau (赵佳一 李天阳 黄嘉宇)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>318  5:18:26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2:58:26  (-7)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(-1)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>star10032 (臧浩民)</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>478  7:58:19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3:58:19  (-12)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
+++ b/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ak_Automaton (管庆涵)</t>
+          <t>ak_Automaton</t>
         </is>
       </c>
       <c r="D24" t="n">

--- a/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
+++ b/ranks/BUPT 2024 Winter Welcome Wagon #2.xlsx
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>yidau (赵佳一 李天阳 黄嘉宇)</t>
+          <t>yidau (赵佳一 李天阳 陈育堃)</t>
         </is>
       </c>
       <c r="D31" t="n">
